--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199865.3275665737</v>
+        <v>-202524.718268293</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11338326.8505845</v>
+        <v>11338326.85058451</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.36947747424265</v>
+        <v>413.3694774742427</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>180.9181686203883</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744249</v>
+        <v>28.42897189744228</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9659064044098</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>214.6330037351249</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>203.3569653549966</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>102.245459762452</v>
       </c>
       <c r="I3" t="n">
-        <v>53.78292798254643</v>
+        <v>53.78292798254636</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.93520916873169</v>
+        <v>35.93520916873157</v>
       </c>
       <c r="S3" t="n">
-        <v>152.46991758541</v>
+        <v>152.4699175854099</v>
       </c>
       <c r="T3" t="n">
         <v>195.9954299974343</v>
@@ -795,7 +795,7 @@
         <v>225.8733304156203</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>130.818504458506</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>103.7006130863851</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.7325294773898</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>154.5170303828789</v>
+        <v>48.84324366804659</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.54637954072476</v>
+        <v>13.54637954072463</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>138.3012002237164</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>337.1989781041216</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>167.5270974669516</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>74.81263606344126</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>77.43213079320253</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>82.54340854639082</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.98822303869011</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>152.3903014912404</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.2597331528555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>43.72346460259622</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>38.14372172458759</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>127.4877856122484</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184572</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>149.579635597946</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530797</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>119.5179048891053</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905247</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.0582821445688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695609</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.2472899190581</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695645</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>22.44547853568583</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708042</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695612</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766857</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>167.8921037048605</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089758</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592109</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695612</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1557845699817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576176</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833207</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>20.43112068613164</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008677988</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187867</v>
@@ -3791,7 +3791,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881287</v>
@@ -3803,10 +3803,10 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.06560892428099</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922689</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.176346405345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187867</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881287</v>
@@ -4040,7 +4040,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784706</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428188</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.14614278817872</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.713278163868</v>
+        <v>1420.788941575099</v>
       </c>
       <c r="C2" t="n">
-        <v>815.7507612234565</v>
+        <v>1420.788941575099</v>
       </c>
       <c r="D2" t="n">
-        <v>457.485062616706</v>
+        <v>1062.523242968349</v>
       </c>
       <c r="E2" t="n">
-        <v>71.69681001846179</v>
+        <v>1062.523242968349</v>
       </c>
       <c r="F2" t="n">
-        <v>64.75130926925831</v>
+        <v>651.5373381787415</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>233.9924114370822</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4328,25 +4328,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>201.8591892086711</v>
+        <v>201.8591892086714</v>
       </c>
       <c r="K2" t="n">
-        <v>227.4289843315402</v>
+        <v>227.428984331541</v>
       </c>
       <c r="L2" t="n">
-        <v>709.5369404802948</v>
+        <v>709.5369404802962</v>
       </c>
       <c r="M2" t="n">
-        <v>1262.581479426993</v>
+        <v>1262.581479426995</v>
       </c>
       <c r="N2" t="n">
-        <v>1809.9428596583</v>
+        <v>1809.942859658302</v>
       </c>
       <c r="O2" t="n">
-        <v>2281.613051838708</v>
+        <v>2281.613051838711</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.547488734044</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Q2" t="n">
         <v>2562.339328400155</v>
@@ -4355,25 +4355,25 @@
         <v>2533.623195170415</v>
       </c>
       <c r="S2" t="n">
-        <v>2366.990966479092</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="T2" t="n">
-        <v>2150.189952605228</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="U2" t="n">
-        <v>1944.77887648907</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="V2" t="n">
-        <v>1944.77887648907</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="W2" t="n">
-        <v>1944.77887648907</v>
+        <v>2180.854539900301</v>
       </c>
       <c r="X2" t="n">
-        <v>1571.31311822799</v>
+        <v>1807.388781639221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1571.31311822799</v>
+        <v>1807.388781639221</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>346.5372104011549</v>
       </c>
       <c r="G3" t="n">
-        <v>208.8512186336581</v>
+        <v>208.851218633658</v>
       </c>
       <c r="H3" t="n">
         <v>105.5729764493631</v>
@@ -4407,25 +4407,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>51.2467865680031</v>
+        <v>147.2571220995299</v>
       </c>
       <c r="K3" t="n">
-        <v>80.14400076498845</v>
+        <v>437.9749209389682</v>
       </c>
       <c r="L3" t="n">
-        <v>532.4543543961413</v>
+        <v>890.2852745701215</v>
       </c>
       <c r="M3" t="n">
-        <v>1080.893146228899</v>
+        <v>1009.041331684368</v>
       </c>
       <c r="N3" t="n">
-        <v>1691.749918321148</v>
+        <v>1491.637365688261</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.14884597725</v>
+        <v>1984.036293344364</v>
       </c>
       <c r="P3" t="n">
-        <v>2562.339328400155</v>
+        <v>2362.226775767269</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4443,13 +4443,13 @@
         <v>1945.9010585343</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.748950302558</v>
+        <v>1813.76115504086</v>
       </c>
       <c r="W3" t="n">
-        <v>1456.511593574356</v>
+        <v>1559.523798312658</v>
       </c>
       <c r="X3" t="n">
-        <v>1248.660093368823</v>
+        <v>1351.672298107125</v>
       </c>
       <c r="Y3" t="n">
         <v>1143.911999342172</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.4685642046381</v>
+        <v>250.7000357460425</v>
       </c>
       <c r="C4" t="n">
-        <v>348.4685642046381</v>
+        <v>250.7000357460425</v>
       </c>
       <c r="D4" t="n">
-        <v>348.4685642046381</v>
+        <v>100.5833963337067</v>
       </c>
       <c r="E4" t="n">
-        <v>348.4685642046381</v>
+        <v>100.5833963337067</v>
       </c>
       <c r="F4" t="n">
-        <v>207.3245950355576</v>
+        <v>100.5833963337067</v>
       </c>
       <c r="G4" t="n">
-        <v>207.3245950355576</v>
+        <v>100.5833963337067</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4489,49 +4489,49 @@
         <v>51.2467865680031</v>
       </c>
       <c r="K4" t="n">
-        <v>128.9446319797722</v>
+        <v>128.9446319797723</v>
       </c>
       <c r="L4" t="n">
-        <v>283.8975582778885</v>
+        <v>283.8975582778889</v>
       </c>
       <c r="M4" t="n">
-        <v>457.6628161503372</v>
+        <v>457.6628161503379</v>
       </c>
       <c r="N4" t="n">
-        <v>632.7309409968803</v>
+        <v>632.7309409968813</v>
       </c>
       <c r="O4" t="n">
-        <v>778.4183943752791</v>
+        <v>778.4183943752803</v>
       </c>
       <c r="P4" t="n">
-        <v>879.5584967969138</v>
+        <v>879.5584967969151</v>
       </c>
       <c r="Q4" t="n">
-        <v>865.875285139616</v>
+        <v>865.8752851396174</v>
       </c>
       <c r="R4" t="n">
-        <v>865.875285139616</v>
+        <v>726.1771030954594</v>
       </c>
       <c r="S4" t="n">
-        <v>865.875285139616</v>
+        <v>726.1771030954594</v>
       </c>
       <c r="T4" t="n">
-        <v>865.875285139616</v>
+        <v>726.1771030954594</v>
       </c>
       <c r="U4" t="n">
-        <v>865.875285139616</v>
+        <v>726.1771030954594</v>
       </c>
       <c r="V4" t="n">
-        <v>865.875285139616</v>
+        <v>471.4926148895726</v>
       </c>
       <c r="W4" t="n">
-        <v>576.4581151026555</v>
+        <v>471.4926148895726</v>
       </c>
       <c r="X4" t="n">
-        <v>348.4685642046381</v>
+        <v>471.4926148895726</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.4685642046381</v>
+        <v>250.7000357460425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>945.6834051789201</v>
+        <v>1253.80118329616</v>
       </c>
       <c r="C5" t="n">
-        <v>576.7208882385085</v>
+        <v>913.1961549081587</v>
       </c>
       <c r="D5" t="n">
-        <v>576.7208882385085</v>
+        <v>913.1961549081587</v>
       </c>
       <c r="E5" t="n">
-        <v>190.9326356402643</v>
+        <v>913.1961549081587</v>
       </c>
       <c r="F5" t="n">
-        <v>183.9871348910608</v>
+        <v>906.2506541589553</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
@@ -4568,16 +4568,16 @@
         <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>350.8589568375468</v>
+        <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>903.672215083746</v>
+        <v>959.6534908014922</v>
       </c>
       <c r="M5" t="n">
-        <v>1090.371627909154</v>
+        <v>1146.3529036269</v>
       </c>
       <c r="N5" t="n">
-        <v>1717.679295969</v>
+        <v>1340.687116518882</v>
       </c>
       <c r="O5" t="n">
         <v>1887.84832128596</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="U5" t="n">
-        <v>2393.120038029497</v>
+        <v>1937.632725909845</v>
       </c>
       <c r="V5" t="n">
-        <v>2062.057150685926</v>
+        <v>1606.569838566274</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.288495415812</v>
+        <v>1253.80118329616</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.822737154732</v>
+        <v>1253.80118329616</v>
       </c>
       <c r="Y5" t="n">
-        <v>945.6834051789201</v>
+        <v>1253.80118329616</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647824</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>126.8151058240044</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4659,10 +4659,10 @@
         <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>1931.28606935682</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2355.253837837657</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4671,25 +4671,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2463.013155273854</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.0344679097588</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="C7" t="n">
-        <v>217.0344679097588</v>
+        <v>534.7348062422284</v>
       </c>
       <c r="D7" t="n">
-        <v>217.0344679097588</v>
+        <v>384.6181668298927</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>384.6181668298927</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>237.7282193319823</v>
       </c>
       <c r="G7" t="n">
         <v>69.12137432736571</v>
@@ -4750,25 +4750,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="V7" t="n">
-        <v>955.2337679882669</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="W7" t="n">
-        <v>665.8165979513062</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="X7" t="n">
-        <v>437.8270470532889</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.0344679097588</v>
+        <v>618.1119865921181</v>
       </c>
     </row>
     <row r="8">
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,22 +4829,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2074.96488206655</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2074.96488206655</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2074.96488206655</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>2074.96488206655</v>
       </c>
       <c r="Y8" t="n">
         <v>2074.96488206655</v>
@@ -4884,25 +4884,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507741</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.0825277700245</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="C10" t="n">
-        <v>367.1463448421176</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1592.281004314299</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1592.281004314299</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1369.302523509034</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1080.184186012872</v>
+        <v>1374.938627426215</v>
       </c>
       <c r="V10" t="n">
-        <v>825.4996978069851</v>
+        <v>1120.254139220328</v>
       </c>
       <c r="W10" t="n">
-        <v>536.0825277700245</v>
+        <v>830.836969183367</v>
       </c>
       <c r="X10" t="n">
-        <v>536.0825277700245</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="Y10" t="n">
-        <v>536.0825277700245</v>
+        <v>602.8474182853497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2169.321871747258</v>
+        <v>2040.546330724785</v>
       </c>
       <c r="C11" t="n">
-        <v>1800.359354806846</v>
+        <v>1671.583813784373</v>
       </c>
       <c r="D11" t="n">
-        <v>1442.093656200096</v>
+        <v>1313.318115177623</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.305403601852</v>
+        <v>927.5298625793782</v>
       </c>
       <c r="F11" t="n">
-        <v>645.319498812244</v>
+        <v>516.5439577897707</v>
       </c>
       <c r="G11" t="n">
-        <v>230.7037342533894</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706887</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656948</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625327</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087827</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484038</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535292</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.12796747999</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464055</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796031</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345378</v>
+        <v>3876.883295796031</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3672.904689377395</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048271</v>
+        <v>3672.904689377395</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.526802048271</v>
+        <v>3341.841802033824</v>
       </c>
       <c r="W11" t="n">
-        <v>3319.526802048271</v>
+        <v>3190.751261025798</v>
       </c>
       <c r="X11" t="n">
-        <v>2946.061043787191</v>
+        <v>2817.285502764718</v>
       </c>
       <c r="Y11" t="n">
-        <v>2555.92171181138</v>
+        <v>2427.146170788907</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390845</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592074</v>
+        <v>193.841091987041</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335451</v>
+        <v>470.7769964046649</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914967</v>
+        <v>889.4740370626159</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948025</v>
+        <v>1397.430603019144</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1933.239912720353</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2014.935408783257</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.6495006023404</v>
+        <v>365.7608055583738</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7133176744335</v>
+        <v>365.7608055583738</v>
       </c>
       <c r="D13" t="n">
-        <v>480.5966782620977</v>
+        <v>245.0356491047323</v>
       </c>
       <c r="E13" t="n">
-        <v>480.5966782620977</v>
+        <v>245.0356491047323</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>245.0356491047323</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344803</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925581</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742809</v>
+        <v>1868.627619458877</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742809</v>
+        <v>1647.736286893318</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.27127569226</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.586787486373</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449412</v>
+        <v>814.5429355999213</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.09054457611</v>
+        <v>586.553384701904</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.2979654325801</v>
+        <v>365.7608055583738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.8461362382113</v>
+        <v>983.3556038098239</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103044</v>
+        <v>814.4194208819171</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979687</v>
+        <v>664.3027814695813</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979687</v>
+        <v>516.3896878871882</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>369.4997403892778</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5437,19 +5437,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.4946010684511</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246299</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C19" t="n">
-        <v>870.3164745246299</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>720.1998351122942</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>572.2867415299011</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>425.3967940319907</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>258.2006947468705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>116.4888635890686</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908938</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138412</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311366</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945772</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739885</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804907</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613764</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,16 +6239,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452613</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121647</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121647</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297716</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297716</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6403,7 +6403,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,25 +6461,25 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>198.0274703142544</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6640,7 +6640,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6698,25 +6698,25 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6728,10 +6728,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,25 +6859,25 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138412</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6944,7 +6944,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6968,10 +6968,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>653.7474797708868</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400713</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277356</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="E37" t="n">
-        <v>363.7369613277356</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="F37" t="n">
-        <v>363.7369613277356</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G37" t="n">
-        <v>196.5408620426155</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>835.3959446011265</v>
       </c>
     </row>
     <row r="38">
@@ -7151,64 +7151,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746424</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168405</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7451,10 +7451,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D43" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E43" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="F43" t="n">
-        <v>402.724593490894</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797191</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7579,10 +7579,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611464</v>
@@ -7643,28 +7643,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797189</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511393</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7994,10 +7994,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>38.01004479012995</v>
+        <v>236.7896808165007</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>13.53535463353003</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>29.11089843987692</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>434.0229643621329</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>349.786073244204</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.943396187479692</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>28.69607745577269</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>178.7586225842971</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605992</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.2106559197185</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-3.371181585577118e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>162.4897177271263</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615221</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>199.661333119467</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>29.09756812910705</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.2535238992738</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.6513732444684</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.100187187665142e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891655</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.33736343303673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.170003234441556e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>58.8203577828797</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>43.72409101823295</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>84.24553961896756</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>125.5054897610397</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4693302300333</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>63.36835372228711</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194207</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4949402405084</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865031</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194333</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864937</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194301</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1014019.594492431</v>
+        <v>1014019.59449243</v>
       </c>
     </row>
     <row r="6">
@@ -26317,10 +26317,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028983</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
@@ -26329,22 +26329,22 @@
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837522</v>
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678074.6944992426</v>
+        <v>678074.6944992434</v>
       </c>
       <c r="C3" t="n">
-        <v>102513.4470555634</v>
+        <v>102513.4470555627</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545763</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704287</v>
+        <v>189308.2687704303</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273091</v>
+        <v>81897.40371273046</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202402</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220641.3432238819</v>
+        <v>220641.3432238817</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26427,37 +26427,37 @@
         <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719619</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719638</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719644</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719629</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.368461719634</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719636</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719647</v>
       </c>
-      <c r="L4" t="n">
-        <v>7507.368461719569</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719668</v>
-      </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719545</v>
+        <v>7507.368461719627</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83058.74367843161</v>
+        <v>83058.74367843164</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738557</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-673884.1177024499</v>
+        <v>-673884.1177024505</v>
       </c>
       <c r="C6" t="n">
-        <v>-78448.35479566161</v>
+        <v>-78448.35479566088</v>
       </c>
       <c r="D6" t="n">
-        <v>-209845.9818105093</v>
+        <v>-209845.9818105092</v>
       </c>
       <c r="E6" t="n">
-        <v>-131395.6257211379</v>
+        <v>-131616.7570351114</v>
       </c>
       <c r="F6" t="n">
-        <v>4741.807827696786</v>
+        <v>4707.069902259449</v>
       </c>
       <c r="G6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726897</v>
       </c>
       <c r="H6" t="n">
-        <v>194050.0765981252</v>
+        <v>194015.3386726899</v>
       </c>
       <c r="I6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726898</v>
       </c>
       <c r="J6" t="n">
-        <v>26444.89878814289</v>
+        <v>26410.16086270734</v>
       </c>
       <c r="K6" t="n">
-        <v>194050.0765981256</v>
+        <v>194015.3386726899</v>
       </c>
       <c r="L6" t="n">
-        <v>194050.0765981256</v>
+        <v>194015.3386726898</v>
       </c>
       <c r="M6" t="n">
-        <v>112152.6728853946</v>
+        <v>112117.9349599594</v>
       </c>
       <c r="N6" t="n">
-        <v>144210.5024661019</v>
+        <v>144175.7645406657</v>
       </c>
       <c r="O6" t="n">
-        <v>194050.0765981257</v>
+        <v>194015.33867269</v>
       </c>
       <c r="P6" t="n">
-        <v>194050.0765981257</v>
+        <v>194015.3386726899</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719843</v>
+        <v>480.8984351719852</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490077</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.685870719207844e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719843</v>
+        <v>480.8984351719852</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5776651660807</v>
+        <v>112.5776651660799</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974104</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.635991848969</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506409</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.635991848969</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506409</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.635991848969</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506409</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>319.6758027219779</v>
+        <v>138.7576341015896</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9438818439017</v>
+        <v>135.9438818439015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.9659064044097</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.6330037351249</v>
       </c>
       <c r="U2" t="n">
-        <v>47.83402674956847</v>
+        <v>251.1909921045651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>101.9820826909192</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.9820826909192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>5.688518545541484</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.1237854589683</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>105.6737867148323</v>
       </c>
       <c r="I4" t="n">
         <v>129.3715892953087</v>
       </c>
       <c r="J4" t="n">
-        <v>32.04857142269702</v>
+        <v>32.0485714226969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>138.3012002237165</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>208.9037734431248</v>
@@ -27594,16 +27594,16 @@
         <v>286.2717278710641</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.07391366688597</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>83.62768875534903</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25.09418201320219</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>70.53999045278903</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>84.70341255223701</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27822,25 +27822,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>157.1494202851379</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>98.65494863722162</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.9782055031981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>57.83410781697741</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>248.083432396613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29800,13 +29800,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.222233154682093e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-7.685870719207844e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-7.685870719207844e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.933260040892398</v>
+        <v>1.933260040892401</v>
       </c>
       <c r="H2" t="n">
-        <v>19.79899939378927</v>
+        <v>19.79899939378931</v>
       </c>
       <c r="I2" t="n">
-        <v>74.53200772650423</v>
+        <v>74.53200772650438</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0830293956913</v>
+        <v>164.0830293956916</v>
       </c>
       <c r="K2" t="n">
-        <v>245.9179269266666</v>
+        <v>245.917926926667</v>
       </c>
       <c r="L2" t="n">
-        <v>305.0829339031274</v>
+        <v>305.0829339031279</v>
       </c>
       <c r="M2" t="n">
-        <v>339.4635471553475</v>
+        <v>339.4635471553481</v>
       </c>
       <c r="N2" t="n">
-        <v>344.9564222465331</v>
+        <v>344.9564222465336</v>
       </c>
       <c r="O2" t="n">
-        <v>325.7325677149092</v>
+        <v>325.7325677149098</v>
       </c>
       <c r="P2" t="n">
-        <v>278.0052104553781</v>
+        <v>278.0052104553786</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.7703352409191</v>
+        <v>208.7703352409195</v>
       </c>
       <c r="R2" t="n">
-        <v>121.4401460437072</v>
+        <v>121.4401460437074</v>
       </c>
       <c r="S2" t="n">
-        <v>44.05416318183556</v>
+        <v>44.05416318183564</v>
       </c>
       <c r="T2" t="n">
-        <v>8.462845829006476</v>
+        <v>8.46284582900649</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1546608032713918</v>
+        <v>0.1546608032713921</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.034385313388797</v>
+        <v>1.034385313388798</v>
       </c>
       <c r="H3" t="n">
-        <v>9.98998447404443</v>
+        <v>9.989984474044448</v>
       </c>
       <c r="I3" t="n">
-        <v>35.61370486886865</v>
+        <v>35.61370486886872</v>
       </c>
       <c r="J3" t="n">
-        <v>97.72672822678977</v>
+        <v>97.72672822678994</v>
       </c>
       <c r="K3" t="n">
-        <v>167.0305442238391</v>
+        <v>167.0305442238394</v>
       </c>
       <c r="L3" t="n">
-        <v>224.5931795583876</v>
+        <v>224.593179558388</v>
       </c>
       <c r="M3" t="n">
-        <v>262.0896471687314</v>
+        <v>262.0896471687319</v>
       </c>
       <c r="N3" t="n">
-        <v>269.0263802572028</v>
+        <v>269.0263802572033</v>
       </c>
       <c r="O3" t="n">
-        <v>246.1065793657984</v>
+        <v>246.1065793657989</v>
       </c>
       <c r="P3" t="n">
-        <v>197.5222270803571</v>
+        <v>197.5222270803575</v>
       </c>
       <c r="Q3" t="n">
-        <v>132.0383778985418</v>
+        <v>132.0383778985421</v>
       </c>
       <c r="R3" t="n">
-        <v>64.22262498391144</v>
+        <v>64.22262498391156</v>
       </c>
       <c r="S3" t="n">
-        <v>19.21325351842785</v>
+        <v>19.21325351842789</v>
       </c>
       <c r="T3" t="n">
-        <v>4.169298697387297</v>
+        <v>4.169298697387304</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06805166535452611</v>
+        <v>0.06805166535452624</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8671938994904634</v>
+        <v>0.867193899490465</v>
       </c>
       <c r="H4" t="n">
-        <v>7.710142124560671</v>
+        <v>7.710142124560685</v>
       </c>
       <c r="I4" t="n">
-        <v>26.07888563194958</v>
+        <v>26.07888563194963</v>
       </c>
       <c r="J4" t="n">
-        <v>61.31060869397576</v>
+        <v>61.31060869397587</v>
       </c>
       <c r="K4" t="n">
-        <v>100.7521639589829</v>
+        <v>100.7521639589831</v>
       </c>
       <c r="L4" t="n">
-        <v>128.9280821115186</v>
+        <v>128.9280821115188</v>
       </c>
       <c r="M4" t="n">
-        <v>135.9365855355824</v>
+        <v>135.9365855355826</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7043173647544</v>
+        <v>132.7043173647546</v>
       </c>
       <c r="O4" t="n">
-        <v>122.5739159025248</v>
+        <v>122.573915902525</v>
       </c>
       <c r="P4" t="n">
-        <v>104.8831603529193</v>
+        <v>104.8831603529195</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.61566371096963</v>
+        <v>72.61566371096976</v>
       </c>
       <c r="R4" t="n">
-        <v>38.99219115345301</v>
+        <v>38.99219115345308</v>
       </c>
       <c r="S4" t="n">
-        <v>15.11282459384744</v>
+        <v>15.11282459384746</v>
       </c>
       <c r="T4" t="n">
-        <v>3.705283025095615</v>
+        <v>3.705283025095622</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0473014854267526</v>
+        <v>0.04730148542675269</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.83313060186914</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639234</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285602</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203913</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975121</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544649</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954552</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.387576118016</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956796</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620352</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825965</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696626</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968217</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495311</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858571</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469203</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193135</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598377</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747743</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821474</v>
       </c>
       <c r="N12" t="n">
-        <v>399.8944267325327</v>
+        <v>672.56323703405</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>225.1169475382863</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383441</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047537</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627649</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092166</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798448</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329024</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100539</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770061</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531026</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806236</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493062</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811702</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493536</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377476</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>398.1179220955532</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157994</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>399.190220890813</v>
+        <v>220.7280629601519</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>687.0167715190033</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197783</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>152.1337400410788</v>
+        <v>152.1337400410791</v>
       </c>
       <c r="K2" t="n">
-        <v>25.828075881686</v>
+        <v>25.82807588168643</v>
       </c>
       <c r="L2" t="n">
-        <v>486.9777334835906</v>
+        <v>486.9777334835911</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6308474209072</v>
+        <v>558.6308474209078</v>
       </c>
       <c r="N2" t="n">
-        <v>552.8902830619263</v>
+        <v>552.8902830619269</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559678</v>
+        <v>476.4345375559684</v>
       </c>
       <c r="P2" t="n">
-        <v>84.78225949023853</v>
+        <v>283.5618955166098</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.7796360263743</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.98013690053209</v>
       </c>
       <c r="K3" t="n">
-        <v>29.18910524948015</v>
+        <v>293.654342262059</v>
       </c>
       <c r="L3" t="n">
-        <v>456.8791450819726</v>
+        <v>456.879145081973</v>
       </c>
       <c r="M3" t="n">
-        <v>553.978577608846</v>
+        <v>119.9556132467135</v>
       </c>
       <c r="N3" t="n">
-        <v>617.0270425174231</v>
+        <v>487.470741418074</v>
       </c>
       <c r="O3" t="n">
-        <v>497.3726541980835</v>
+        <v>497.372654198084</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0105883059641</v>
+        <v>382.0105883059644</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>202.1338915483696</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.48267213310005</v>
+        <v>78.48267213310024</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5181073718347</v>
+        <v>156.5181073718349</v>
       </c>
       <c r="M4" t="n">
-        <v>175.520462497423</v>
+        <v>175.5204624974232</v>
       </c>
       <c r="N4" t="n">
-        <v>176.836489743983</v>
+        <v>176.8364897439832</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1590438165645</v>
+        <v>147.1590438165647</v>
       </c>
       <c r="P4" t="n">
-        <v>102.1617196178128</v>
+        <v>102.1617196178129</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>112.0932032886943</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>319.494638585563</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
@@ -35027,13 +35027,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108625</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>209.1772631944427</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522352</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.160013893705</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525316</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844776</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681825</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214251</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739929</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067656</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081469</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553051</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526468</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854787</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949001</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.087440360129</v>
       </c>
       <c r="N12" t="n">
-        <v>268.5527146491993</v>
+        <v>541.2215249507167</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>82.52070309384185</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240139</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187322</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186264</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070196</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.90893007037</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388466</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323312</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946633</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141997</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776297</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>259.5635423156791</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324661</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>261.348781916454</v>
+        <v>82.88662398579289</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37470,13 +37470,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>544.4205270745589</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753338</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38181,13 +38181,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
